--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2508153.972891457</v>
+        <v>2507757.380037782</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261098.0247275244</v>
+        <v>261098.0247275268</v>
       </c>
     </row>
     <row r="8">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>387.588410175013</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>110.2182083406715</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -716,7 +716,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>61.33875195286317</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>5.734190610592152</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>218.4708099286599</v>
+        <v>257.7395212081474</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>328.0391044328437</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>234.922604534187</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>104.0896421586319</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1035,13 +1035,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>175.7297215055492</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>74.65754583109103</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>126.0224895306994</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>390.2803851903389</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>40.35189326988598</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>74.25201978836913</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1260,13 +1260,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>225.2938802726981</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508321</v>
+        <v>28.95805838532638</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774081</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
-        <v>84.90316982655936</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y11" t="n">
         <v>276.1762713617116</v>
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>87.97340098538564</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>125.4725445708143</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>184.0851924340423</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932726</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472774</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230613</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808558</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627189</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563762007</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031015</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513949</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355683</v>
+        <v>34.5963980635568</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214055</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1591,7 +1591,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553686</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y13" t="n">
         <v>106.3846417114369</v>
@@ -1607,25 +1607,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>36.18639241150165</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508321</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>204.1836129533457</v>
       </c>
       <c r="Y14" t="n">
         <v>276.1762713617116</v>
@@ -1689,7 +1689,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>79.86592178137815</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>73.36808728746591</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>204.4572186707323</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808561</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627192</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1828,7 +1828,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y16" t="n">
         <v>106.3846417114369</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>216.4199433826098</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C17" t="n">
-        <v>204.4312603402915</v>
+        <v>204.4312603402914</v>
       </c>
       <c r="D17" t="n">
-        <v>195.4125643848195</v>
+        <v>195.4125643848194</v>
       </c>
       <c r="E17" t="n">
-        <v>217.1547019547251</v>
+        <v>217.1547019547249</v>
       </c>
       <c r="F17" t="n">
-        <v>236.3265180427022</v>
+        <v>236.3265180427021</v>
       </c>
       <c r="G17" t="n">
-        <v>238.2597859401247</v>
+        <v>238.2597859401245</v>
       </c>
       <c r="H17" t="n">
-        <v>155.8099009184347</v>
+        <v>155.8099009184346</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.67352487572043</v>
+        <v>11.67352487572032</v>
       </c>
       <c r="T17" t="n">
-        <v>48.43219606606979</v>
+        <v>48.43219606606968</v>
       </c>
       <c r="U17" t="n">
-        <v>78.65332218291675</v>
+        <v>78.65332218291664</v>
       </c>
       <c r="V17" t="n">
-        <v>159.9263206227889</v>
+        <v>159.9263206227888</v>
       </c>
       <c r="W17" t="n">
-        <v>185.2264201007458</v>
+        <v>185.2264201007457</v>
       </c>
       <c r="X17" t="n">
-        <v>204.5266783334924</v>
+        <v>204.5266783334923</v>
       </c>
       <c r="Y17" t="n">
-        <v>215.9232761296912</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>8.064068754472975</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -1977,7 +1977,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>150.2134793785272</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.036654257306878</v>
+        <v>8.036654257306765</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>37.88950423012017</v>
+        <v>37.88950423012005</v>
       </c>
       <c r="T19" t="n">
-        <v>57.1640029122488</v>
+        <v>57.16400291224869</v>
       </c>
       <c r="U19" t="n">
-        <v>110.635176375562</v>
+        <v>128.2035988065545</v>
       </c>
       <c r="V19" t="n">
-        <v>84.44479065693247</v>
+        <v>84.44479065693235</v>
       </c>
       <c r="W19" t="n">
-        <v>109.6116767275457</v>
+        <v>109.6116767275456</v>
       </c>
       <c r="X19" t="n">
-        <v>72.82520115434066</v>
+        <v>55.25677872334873</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.13164647941653</v>
+        <v>46.13164647941642</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>216.4199433826098</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C20" t="n">
-        <v>204.4312603402915</v>
+        <v>204.4312603402914</v>
       </c>
       <c r="D20" t="n">
-        <v>195.4125643848195</v>
+        <v>195.4125643848194</v>
       </c>
       <c r="E20" t="n">
-        <v>217.1547019547251</v>
+        <v>217.1547019547249</v>
       </c>
       <c r="F20" t="n">
-        <v>236.3265180427022</v>
+        <v>236.3265180427021</v>
       </c>
       <c r="G20" t="n">
-        <v>238.2597859401247</v>
+        <v>238.2597859401246</v>
       </c>
       <c r="H20" t="n">
-        <v>155.8099009184347</v>
+        <v>155.8099009184346</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.67352487572043</v>
+        <v>11.67352487572032</v>
       </c>
       <c r="T20" t="n">
-        <v>48.43219606606979</v>
+        <v>48.43219606606968</v>
       </c>
       <c r="U20" t="n">
-        <v>78.65332218291675</v>
+        <v>78.65332218291664</v>
       </c>
       <c r="V20" t="n">
-        <v>159.9263206227889</v>
+        <v>159.9263206227888</v>
       </c>
       <c r="W20" t="n">
-        <v>185.2264201007458</v>
+        <v>185.2264201007457</v>
       </c>
       <c r="X20" t="n">
-        <v>204.5266783334924</v>
+        <v>204.5266783334923</v>
       </c>
       <c r="Y20" t="n">
-        <v>215.9232761296912</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>79.86592178137815</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2172,7 +2172,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>69.85688611863826</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.036654257306878</v>
+        <v>8.036654257306765</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>17.56842243099261</v>
       </c>
       <c r="S22" t="n">
-        <v>37.88950423012017</v>
+        <v>37.88950423012005</v>
       </c>
       <c r="T22" t="n">
-        <v>74.73242534324059</v>
+        <v>57.16400291224869</v>
       </c>
       <c r="U22" t="n">
-        <v>110.635176375562</v>
+        <v>110.6351763755619</v>
       </c>
       <c r="V22" t="n">
-        <v>84.44479065693247</v>
+        <v>84.44479065693235</v>
       </c>
       <c r="W22" t="n">
-        <v>109.6116767275457</v>
+        <v>109.6116767275456</v>
       </c>
       <c r="X22" t="n">
-        <v>55.25677872334884</v>
+        <v>55.25677872334873</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.13164647941653</v>
+        <v>46.13164647941642</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>216.4199433826098</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C23" t="n">
-        <v>204.4312603402915</v>
+        <v>204.4312603402914</v>
       </c>
       <c r="D23" t="n">
-        <v>195.4125643848195</v>
+        <v>195.4125643848194</v>
       </c>
       <c r="E23" t="n">
-        <v>217.1547019547251</v>
+        <v>217.1547019547249</v>
       </c>
       <c r="F23" t="n">
-        <v>236.3265180427022</v>
+        <v>236.3265180427021</v>
       </c>
       <c r="G23" t="n">
-        <v>238.2597859401247</v>
+        <v>238.2597859401246</v>
       </c>
       <c r="H23" t="n">
-        <v>155.8099009184347</v>
+        <v>155.8099009184346</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.67352487572043</v>
+        <v>11.67352487572032</v>
       </c>
       <c r="T23" t="n">
-        <v>48.43219606606979</v>
+        <v>48.43219606606968</v>
       </c>
       <c r="U23" t="n">
-        <v>78.65332218291675</v>
+        <v>78.65332218291664</v>
       </c>
       <c r="V23" t="n">
-        <v>159.9263206227889</v>
+        <v>159.9263206227888</v>
       </c>
       <c r="W23" t="n">
-        <v>185.2264201007458</v>
+        <v>185.2264201007457</v>
       </c>
       <c r="X23" t="n">
-        <v>204.5266783334924</v>
+        <v>204.5266783334923</v>
       </c>
       <c r="Y23" t="n">
-        <v>215.9232761296912</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>41.35415002045715</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>120.7018876965287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.036654257306878</v>
+        <v>8.036654257306765</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>17.56842243099261</v>
       </c>
       <c r="S25" t="n">
-        <v>55.45792666111198</v>
+        <v>37.88950423012005</v>
       </c>
       <c r="T25" t="n">
-        <v>57.1640029122488</v>
+        <v>57.16400291224869</v>
       </c>
       <c r="U25" t="n">
-        <v>110.635176375562</v>
+        <v>110.6351763755619</v>
       </c>
       <c r="V25" t="n">
-        <v>84.44479065693247</v>
+        <v>84.44479065693235</v>
       </c>
       <c r="W25" t="n">
-        <v>109.6116767275457</v>
+        <v>109.6116767275456</v>
       </c>
       <c r="X25" t="n">
-        <v>55.25677872334884</v>
+        <v>55.25677872334873</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.13164647941653</v>
+        <v>46.13164647941642</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>185.7283229276118</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
@@ -2561,10 +2561,10 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
-        <v>277.4076971867455</v>
+        <v>206.8663234127391</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>298.5127811721451</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
         <v>220.1793158548093</v>
@@ -2621,7 +2621,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2643,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G27" t="n">
         <v>127.4412149769483</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133634</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2801,13 +2801,13 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
-        <v>154.1923791098357</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>71.92652010774083</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
@@ -2858,7 +2858,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>263.2937588827887</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133634</v>
+        <v>53.13297117133631</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.9460223007793</v>
+        <v>245.9460223007792</v>
       </c>
       <c r="C32" t="n">
-        <v>233.957339258461</v>
+        <v>233.9573392584609</v>
       </c>
       <c r="D32" t="n">
-        <v>224.938643302989</v>
+        <v>224.9386433029889</v>
       </c>
       <c r="E32" t="n">
-        <v>246.6807808728946</v>
+        <v>246.6807808728944</v>
       </c>
       <c r="F32" t="n">
-        <v>265.8525969608717</v>
+        <v>265.8525969608716</v>
       </c>
       <c r="G32" t="n">
-        <v>267.7858648582942</v>
+        <v>267.7858648582941</v>
       </c>
       <c r="H32" t="n">
-        <v>185.3359798366042</v>
+        <v>185.3359798366041</v>
       </c>
       <c r="I32" t="n">
-        <v>26.93194498123231</v>
+        <v>26.93194498123219</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.19960379388993</v>
+        <v>41.19960379388982</v>
       </c>
       <c r="T32" t="n">
-        <v>77.9582749842393</v>
+        <v>77.95827498423918</v>
       </c>
       <c r="U32" t="n">
-        <v>108.1794011010863</v>
+        <v>108.1794011010861</v>
       </c>
       <c r="V32" t="n">
-        <v>189.4523995409584</v>
+        <v>189.4523995409583</v>
       </c>
       <c r="W32" t="n">
-        <v>214.7524990189153</v>
+        <v>214.7524990189152</v>
       </c>
       <c r="X32" t="n">
-        <v>234.0527572516619</v>
+        <v>234.0527572516618</v>
       </c>
       <c r="Y32" t="n">
-        <v>245.4493550478607</v>
+        <v>245.4493550478606</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326535</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13297117133644</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.56273317547638</v>
+        <v>37.56273317547627</v>
       </c>
       <c r="C34" t="n">
-        <v>23.76272802087686</v>
+        <v>23.76272802087675</v>
       </c>
       <c r="D34" t="n">
-        <v>7.384092418455253</v>
+        <v>7.38409241845514</v>
       </c>
       <c r="E34" t="n">
-        <v>6.331842274234702</v>
+        <v>6.331842274234589</v>
       </c>
       <c r="F34" t="n">
-        <v>6.798766602421011</v>
+        <v>6.798766602420898</v>
       </c>
       <c r="G34" t="n">
-        <v>23.07346932376885</v>
+        <v>23.07346932376873</v>
       </c>
       <c r="H34" t="n">
-        <v>13.62183694645927</v>
+        <v>13.62183694645915</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.869481749705926</v>
+        <v>3.869481749705812</v>
       </c>
       <c r="S34" t="n">
-        <v>67.41558314828967</v>
+        <v>67.41558314828956</v>
       </c>
       <c r="T34" t="n">
-        <v>86.69008183041831</v>
+        <v>86.69008183041819</v>
       </c>
       <c r="U34" t="n">
-        <v>140.1612552937315</v>
+        <v>140.1612552937314</v>
       </c>
       <c r="V34" t="n">
-        <v>113.970869575102</v>
+        <v>113.9708695751019</v>
       </c>
       <c r="W34" t="n">
-        <v>139.1377556457152</v>
+        <v>139.1377556457151</v>
       </c>
       <c r="X34" t="n">
-        <v>84.78285764151835</v>
+        <v>84.78285764151823</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.65772539758603</v>
+        <v>75.65772539758592</v>
       </c>
     </row>
     <row r="35">
@@ -3597,7 +3597,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -4071,10 +4071,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I45" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1434.666808193116</v>
+        <v>910.4585587194092</v>
       </c>
       <c r="C2" t="n">
-        <v>1434.666808193116</v>
+        <v>910.4585587194092</v>
       </c>
       <c r="D2" t="n">
-        <v>1434.666808193116</v>
+        <v>910.4585587194092</v>
       </c>
       <c r="E2" t="n">
-        <v>1043.163363571891</v>
+        <v>910.4585587194092</v>
       </c>
       <c r="F2" t="n">
-        <v>629.0121728820611</v>
+        <v>900.3477720699836</v>
       </c>
       <c r="G2" t="n">
-        <v>212.9081863362491</v>
+        <v>484.2437855241716</v>
       </c>
       <c r="H2" t="n">
-        <v>212.9081863362491</v>
+        <v>151.4225111214809</v>
       </c>
       <c r="I2" t="n">
-        <v>40.09098754504515</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J2" t="n">
         <v>112.0895318178508</v>
       </c>
       <c r="K2" t="n">
-        <v>352.2299038626336</v>
+        <v>352.2299038626335</v>
       </c>
       <c r="L2" t="n">
         <v>700.1152769475798</v>
@@ -4340,40 +4340,40 @@
         <v>1093.354443200668</v>
       </c>
       <c r="N2" t="n">
-        <v>1376.955642636834</v>
+        <v>1471.685801888383</v>
       </c>
       <c r="O2" t="n">
-        <v>1681.960227109667</v>
+        <v>1776.392480796202</v>
       </c>
       <c r="P2" t="n">
-        <v>1910.11712356572</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="Q2" t="n">
-        <v>2004.549377252258</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R2" t="n">
-        <v>1913.911090748111</v>
+        <v>1913.911090748109</v>
       </c>
       <c r="S2" t="n">
-        <v>1913.911090748111</v>
+        <v>1726.682115378463</v>
       </c>
       <c r="T2" t="n">
-        <v>1689.552144479122</v>
+        <v>1502.323169109474</v>
       </c>
       <c r="U2" t="n">
-        <v>1434.666808193116</v>
+        <v>1247.437832823468</v>
       </c>
       <c r="V2" t="n">
-        <v>1434.666808193116</v>
+        <v>910.4585587194092</v>
       </c>
       <c r="W2" t="n">
-        <v>1434.666808193116</v>
+        <v>910.4585587194092</v>
       </c>
       <c r="X2" t="n">
-        <v>1434.666808193116</v>
+        <v>910.4585587194092</v>
       </c>
       <c r="Y2" t="n">
-        <v>1434.666808193116</v>
+        <v>910.4585587194092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>919.4037480470892</v>
+        <v>765.9517880999438</v>
       </c>
       <c r="C3" t="n">
-        <v>757.7000752880439</v>
+        <v>604.2481153408985</v>
       </c>
       <c r="D3" t="n">
-        <v>618.8614382782559</v>
+        <v>465.4094783311106</v>
       </c>
       <c r="E3" t="n">
-        <v>471.8334283351272</v>
+        <v>465.4094783311106</v>
       </c>
       <c r="F3" t="n">
-        <v>337.1396302850015</v>
+        <v>330.7156802809849</v>
       </c>
       <c r="G3" t="n">
-        <v>208.4111303082861</v>
+        <v>201.9871803042695</v>
       </c>
       <c r="H3" t="n">
-        <v>108.4732728549842</v>
+        <v>102.0493228509675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.09098754504515</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J3" t="n">
-        <v>40.09098754504515</v>
+        <v>100.3451340781512</v>
       </c>
       <c r="K3" t="n">
-        <v>40.09098754504515</v>
+        <v>329.8356866383399</v>
       </c>
       <c r="L3" t="n">
-        <v>405.9128327151608</v>
+        <v>695.6575318084556</v>
       </c>
       <c r="M3" t="n">
-        <v>890.9461862253872</v>
+        <v>695.6575318084556</v>
       </c>
       <c r="N3" t="n">
-        <v>1152.481877406815</v>
+        <v>1191.783502678389</v>
       </c>
       <c r="O3" t="n">
-        <v>1544.681828190966</v>
+        <v>1583.98345346254</v>
       </c>
       <c r="P3" t="n">
-        <v>1846.777747466663</v>
+        <v>1846.777747466661</v>
       </c>
       <c r="Q3" t="n">
-        <v>2004.549377252258</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R3" t="n">
-        <v>1944.765108347203</v>
+        <v>1944.765108347201</v>
       </c>
       <c r="S3" t="n">
-        <v>1944.765108347203</v>
+        <v>1791.965621359941</v>
       </c>
       <c r="T3" t="n">
-        <v>1944.765108347203</v>
+        <v>1603.280517525926</v>
       </c>
       <c r="U3" t="n">
-        <v>1938.972996619332</v>
+        <v>1384.785725124236</v>
       </c>
       <c r="V3" t="n">
-        <v>1710.577374067666</v>
+        <v>1156.39010257257</v>
       </c>
       <c r="W3" t="n">
-        <v>1469.261505300977</v>
+        <v>1156.39010257257</v>
       </c>
       <c r="X3" t="n">
-        <v>1271.344517178771</v>
+        <v>958.473114450365</v>
       </c>
       <c r="Y3" t="n">
-        <v>1078.82319082835</v>
+        <v>765.9517880999438</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.4726470044525</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="C4" t="n">
-        <v>351.4726470044525</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="D4" t="n">
-        <v>351.4726470044525</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="E4" t="n">
-        <v>199.4636327657713</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="F4" t="n">
-        <v>199.4636327657713</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="G4" t="n">
-        <v>199.4636327657713</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="H4" t="n">
-        <v>40.09098754504515</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I4" t="n">
-        <v>40.09098754504515</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J4" t="n">
-        <v>40.09098754504515</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="K4" t="n">
-        <v>73.69517528968856</v>
+        <v>73.69517528968851</v>
       </c>
       <c r="L4" t="n">
-        <v>174.3022546899481</v>
+        <v>174.302254689948</v>
       </c>
       <c r="M4" t="n">
         <v>292.2957608175498</v>
       </c>
       <c r="N4" t="n">
-        <v>410.7181025671502</v>
+        <v>410.7181025671501</v>
       </c>
       <c r="O4" t="n">
-        <v>509.1817490628399</v>
+        <v>509.1817490628398</v>
       </c>
       <c r="P4" t="n">
         <v>572.1502327909776</v>
       </c>
       <c r="Q4" t="n">
-        <v>572.1502327909776</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="R4" t="n">
-        <v>572.1502327909776</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="S4" t="n">
-        <v>572.1502327909776</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="T4" t="n">
-        <v>572.1502327909776</v>
+        <v>300.4339382603455</v>
       </c>
       <c r="U4" t="n">
-        <v>572.1502327909776</v>
+        <v>300.4339382603455</v>
       </c>
       <c r="V4" t="n">
-        <v>572.1502327909776</v>
+        <v>300.4339382603455</v>
       </c>
       <c r="W4" t="n">
-        <v>351.4726470044525</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="X4" t="n">
-        <v>351.4726470044525</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.4726470044525</v>
+        <v>40.0909875450451</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>951.1101194757963</v>
+        <v>789.8723509964625</v>
       </c>
       <c r="C5" t="n">
-        <v>951.1101194757963</v>
+        <v>789.8723509964625</v>
       </c>
       <c r="D5" t="n">
-        <v>951.1101194757963</v>
+        <v>789.8723509964625</v>
       </c>
       <c r="E5" t="n">
-        <v>556.3243995819032</v>
+        <v>395.0866311025694</v>
       </c>
       <c r="F5" t="n">
-        <v>224.9717688416571</v>
+        <v>384.9758444531438</v>
       </c>
       <c r="G5" t="n">
-        <v>212.9081863362491</v>
+        <v>372.9122619477358</v>
       </c>
       <c r="H5" t="n">
-        <v>212.9081863362491</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I5" t="n">
-        <v>40.09098754504515</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J5" t="n">
-        <v>112.0895318178508</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="K5" t="n">
-        <v>352.2299038626336</v>
+        <v>280.2313595898279</v>
       </c>
       <c r="L5" t="n">
-        <v>700.1152769475798</v>
+        <v>628.1167326747741</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.354443200668</v>
+        <v>1021.355898927862</v>
       </c>
       <c r="N5" t="n">
-        <v>1471.685801888383</v>
+        <v>1399.687257615578</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.690386361217</v>
+        <v>1704.691842088412</v>
       </c>
       <c r="P5" t="n">
-        <v>1910.11712356572</v>
+        <v>1910.117123565718</v>
       </c>
       <c r="Q5" t="n">
-        <v>2004.549377252258</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R5" t="n">
-        <v>1913.911090748111</v>
+        <v>1913.911090748109</v>
       </c>
       <c r="S5" t="n">
-        <v>1726.682115378465</v>
+        <v>1726.682115378463</v>
       </c>
       <c r="T5" t="n">
-        <v>1726.682115378465</v>
+        <v>1726.682115378463</v>
       </c>
       <c r="U5" t="n">
-        <v>1726.682115378465</v>
+        <v>1726.682115378463</v>
       </c>
       <c r="V5" t="n">
-        <v>1726.682115378465</v>
+        <v>1389.702841274404</v>
       </c>
       <c r="W5" t="n">
-        <v>1726.682115378465</v>
+        <v>1027.167911132005</v>
       </c>
       <c r="X5" t="n">
-        <v>1344.651974899958</v>
+        <v>1027.167911132005</v>
       </c>
       <c r="Y5" t="n">
-        <v>951.1101194757963</v>
+        <v>789.8723509964625</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>819.4658905937873</v>
+        <v>553.9015803860079</v>
       </c>
       <c r="C6" t="n">
-        <v>657.762217834742</v>
+        <v>392.1979076269627</v>
       </c>
       <c r="D6" t="n">
-        <v>518.9235808249541</v>
+        <v>392.1979076269627</v>
       </c>
       <c r="E6" t="n">
-        <v>371.8955708818253</v>
+        <v>245.1698976838339</v>
       </c>
       <c r="F6" t="n">
-        <v>237.2017728316996</v>
+        <v>140.0288449983471</v>
       </c>
       <c r="G6" t="n">
-        <v>108.4732728549842</v>
+        <v>140.0288449983471</v>
       </c>
       <c r="H6" t="n">
-        <v>108.4732728549842</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I6" t="n">
-        <v>40.09098754504515</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J6" t="n">
-        <v>40.09098754504515</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="K6" t="n">
-        <v>40.09098754504515</v>
+        <v>269.5815401052338</v>
       </c>
       <c r="L6" t="n">
-        <v>405.9128327151608</v>
+        <v>635.4033852753494</v>
       </c>
       <c r="M6" t="n">
-        <v>890.9461862253872</v>
+        <v>1120.436738785576</v>
       </c>
       <c r="N6" t="n">
-        <v>1152.481877406815</v>
+        <v>1152.481877406813</v>
       </c>
       <c r="O6" t="n">
-        <v>1544.681828190966</v>
+        <v>1544.681828190964</v>
       </c>
       <c r="P6" t="n">
-        <v>1846.777747466663</v>
+        <v>1846.777747466661</v>
       </c>
       <c r="Q6" t="n">
-        <v>2004.549377252258</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R6" t="n">
-        <v>1944.765108347203</v>
+        <v>1944.765108347201</v>
       </c>
       <c r="S6" t="n">
-        <v>1791.965621359943</v>
+        <v>1791.965621359941</v>
       </c>
       <c r="T6" t="n">
-        <v>1603.280517525929</v>
+        <v>1791.965621359941</v>
       </c>
       <c r="U6" t="n">
-        <v>1384.785725124239</v>
+        <v>1573.470828958251</v>
       </c>
       <c r="V6" t="n">
-        <v>1156.390102572573</v>
+        <v>1345.075206406585</v>
       </c>
       <c r="W6" t="n">
-        <v>978.8853333750483</v>
+        <v>1103.759337639895</v>
       </c>
       <c r="X6" t="n">
-        <v>978.8853333750483</v>
+        <v>905.84234951769</v>
       </c>
       <c r="Y6" t="n">
-        <v>978.8853333750483</v>
+        <v>713.3210231672688</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.7385703353301</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="C7" t="n">
-        <v>496.7385703353301</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="D7" t="n">
-        <v>343.6666771630928</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="E7" t="n">
-        <v>343.6666771630928</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="F7" t="n">
-        <v>343.6666771630928</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="G7" t="n">
-        <v>343.6666771630928</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="H7" t="n">
-        <v>184.2940319423666</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I7" t="n">
-        <v>40.09098754504515</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J7" t="n">
-        <v>40.09098754504515</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="K7" t="n">
-        <v>73.69517528968856</v>
+        <v>73.69517528968851</v>
       </c>
       <c r="L7" t="n">
-        <v>174.3022546899481</v>
+        <v>174.302254689948</v>
       </c>
       <c r="M7" t="n">
         <v>292.2957608175498</v>
       </c>
       <c r="N7" t="n">
-        <v>410.7181025671502</v>
+        <v>410.7181025671501</v>
       </c>
       <c r="O7" t="n">
-        <v>509.1817490628399</v>
+        <v>509.1817490628398</v>
       </c>
       <c r="P7" t="n">
         <v>572.1502327909776</v>
@@ -4750,25 +4750,25 @@
         <v>572.1502327909776</v>
       </c>
       <c r="S7" t="n">
-        <v>496.7385703353301</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="T7" t="n">
-        <v>496.7385703353301</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="U7" t="n">
-        <v>496.7385703353301</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="V7" t="n">
-        <v>496.7385703353301</v>
+        <v>326.247389027646</v>
       </c>
       <c r="W7" t="n">
-        <v>496.7385703353301</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="X7" t="n">
-        <v>496.7385703353301</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="Y7" t="n">
-        <v>496.7385703353301</v>
+        <v>40.0909875450451</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1025.168052741588</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="C8" t="n">
-        <v>1025.168052741588</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D8" t="n">
-        <v>1025.168052741588</v>
+        <v>458.984345149926</v>
       </c>
       <c r="E8" t="n">
-        <v>1025.168052741588</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1755.689182269809</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>1418.70990816575</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W8" t="n">
-        <v>1418.70990816575</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="X8" t="n">
-        <v>1418.70990816575</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="Y8" t="n">
-        <v>1025.168052741588</v>
+        <v>959.1037538931058</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>680.3746967613888</v>
+        <v>614.6793913469587</v>
       </c>
       <c r="C9" t="n">
-        <v>518.6710240023435</v>
+        <v>452.9757185879134</v>
       </c>
       <c r="D9" t="n">
-        <v>379.8323869925556</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="E9" t="n">
-        <v>379.8323869925556</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>185.4085816014101</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4881,22 +4881,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P9" t="n">
         <v>1943.441175274367</v>
@@ -4908,25 +4908,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1699.943945333632</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V9" t="n">
-        <v>1471.548322781966</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W9" t="n">
-        <v>1230.232454015276</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X9" t="n">
-        <v>1032.315465893071</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y9" t="n">
-        <v>839.7941395426498</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.5139253141033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>346.5139253141033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>346.5139253141033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>194.5049110754221</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
         <v>42.02425610119923</v>
@@ -4990,22 +4990,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>346.5139253141033</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V10" t="n">
-        <v>346.5139253141033</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W10" t="n">
-        <v>346.5139253141033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>346.5139253141033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>346.5139253141033</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1473.975894479424</v>
+        <v>821.9201016243428</v>
       </c>
       <c r="C11" t="n">
-        <v>1206.618060567998</v>
+        <v>554.5622677129163</v>
       </c>
       <c r="D11" t="n">
-        <v>1206.618060567998</v>
+        <v>296.3142276959065</v>
       </c>
       <c r="E11" t="n">
-        <v>926.4082654298709</v>
+        <v>296.3142276959065</v>
       </c>
       <c r="F11" t="n">
-        <v>626.8329994958076</v>
+        <v>296.3142276959065</v>
       </c>
       <c r="G11" t="n">
-        <v>325.3049377057619</v>
+        <v>296.3142276959065</v>
       </c>
       <c r="H11" t="n">
-        <v>107.0595880588376</v>
+        <v>78.06887804898216</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1339687777893</v>
+        <v>233.1127221493323</v>
       </c>
       <c r="K11" t="n">
-        <v>469.2743408225721</v>
+        <v>473.253094194115</v>
       </c>
       <c r="L11" t="n">
-        <v>929.4555777606449</v>
+        <v>821.1384672790613</v>
       </c>
       <c r="M11" t="n">
-        <v>1322.694744013733</v>
+        <v>1214.377633532149</v>
       </c>
       <c r="N11" t="n">
-        <v>1701.026102701449</v>
+        <v>1592.708992219865</v>
       </c>
       <c r="O11" t="n">
-        <v>2118.326551027409</v>
+        <v>2006.030687174281</v>
       </c>
       <c r="P11" t="n">
-        <v>2346.483447483462</v>
+        <v>2346.483447483461</v>
       </c>
       <c r="Q11" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S11" t="n">
-        <v>2368.26265055612</v>
+        <v>2368.262650556118</v>
       </c>
       <c r="T11" t="n">
-        <v>2258.479629042898</v>
+        <v>2258.479629042896</v>
       </c>
       <c r="U11" t="n">
-        <v>2118.170217512658</v>
+        <v>2118.170217512656</v>
       </c>
       <c r="V11" t="n">
-        <v>2118.170217512658</v>
+        <v>1895.766868164364</v>
       </c>
       <c r="W11" t="n">
-        <v>2118.170217512658</v>
+        <v>1647.807862777731</v>
       </c>
       <c r="X11" t="n">
-        <v>2032.409439910072</v>
+        <v>1380.353647054991</v>
       </c>
       <c r="Y11" t="n">
-        <v>1753.443509241677</v>
+        <v>1101.387716386595</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697355</v>
       </c>
       <c r="C12" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106902</v>
       </c>
       <c r="D12" t="n">
-        <v>627.5887647566108</v>
+        <v>501.0404907009023</v>
       </c>
       <c r="E12" t="n">
-        <v>480.560754813482</v>
+        <v>412.1784695035431</v>
       </c>
       <c r="F12" t="n">
-        <v>345.8669567633564</v>
+        <v>277.4846714534174</v>
       </c>
       <c r="G12" t="n">
-        <v>217.138456786641</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H12" t="n">
-        <v>117.200599333339</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81831402339999</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K12" t="n">
-        <v>226.7273565210932</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L12" t="n">
-        <v>592.5492016912089</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M12" t="n">
-        <v>1077.582555201435</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N12" t="n">
-        <v>1588.848201324557</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O12" t="n">
-        <v>1981.048152108708</v>
+        <v>1981.048152108706</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.144071384405</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q12" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R12" t="n">
-        <v>2381.131432264945</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S12" t="n">
-        <v>2228.331945277685</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T12" t="n">
-        <v>2039.646841443671</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U12" t="n">
-        <v>1821.152049041981</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V12" t="n">
-        <v>1592.756426490315</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.016482479391</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y12" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509965</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.4598109066939</v>
+        <v>346.459810906694</v>
       </c>
       <c r="C13" t="n">
-        <v>291.4197661241406</v>
+        <v>291.4197661241408</v>
       </c>
       <c r="D13" t="n">
-        <v>252.9237977076697</v>
+        <v>252.92379770767</v>
       </c>
       <c r="E13" t="n">
-        <v>215.4907082247549</v>
+        <v>215.4907082247553</v>
       </c>
       <c r="F13" t="n">
-        <v>177.5859780062984</v>
+        <v>177.5859780062991</v>
       </c>
       <c r="G13" t="n">
-        <v>123.2421541299149</v>
+        <v>123.2421541299148</v>
       </c>
       <c r="H13" t="n">
-        <v>78.44543366495508</v>
+        <v>78.445433664955</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J13" t="n">
         <v>102.2520783385573</v>
@@ -5203,13 +5203,13 @@
         <v>248.1521299363274</v>
       </c>
       <c r="L13" t="n">
-        <v>461.0550731897135</v>
+        <v>461.0550731897131</v>
       </c>
       <c r="M13" t="n">
-        <v>691.344443170442</v>
+        <v>691.3444431704418</v>
       </c>
       <c r="N13" t="n">
-        <v>922.062648773169</v>
+        <v>922.0626487731688</v>
       </c>
       <c r="O13" t="n">
         <v>1132.822159121985</v>
@@ -5221,25 +5221,25 @@
         <v>1382.611922302857</v>
       </c>
       <c r="R13" t="n">
-        <v>1347.666065673002</v>
+        <v>1347.666065673001</v>
       </c>
       <c r="S13" t="n">
-        <v>1248.532227832456</v>
+        <v>1248.532227832455</v>
       </c>
       <c r="T13" t="n">
         <v>1129.929199403901</v>
       </c>
       <c r="U13" t="n">
-        <v>957.3148846487671</v>
+        <v>957.314884648767</v>
       </c>
       <c r="V13" t="n">
-        <v>811.1555049629561</v>
+        <v>811.1555049629562</v>
       </c>
       <c r="W13" t="n">
-        <v>639.5750282361216</v>
+        <v>639.5750282361217</v>
       </c>
       <c r="X13" t="n">
-        <v>522.8984888872639</v>
+        <v>522.898488887264</v>
       </c>
       <c r="Y13" t="n">
         <v>415.4392548353073</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1292.282456359269</v>
+        <v>883.1282436568351</v>
       </c>
       <c r="C14" t="n">
-        <v>1024.924622447842</v>
+        <v>883.1282436568351</v>
       </c>
       <c r="D14" t="n">
-        <v>1024.924622447842</v>
+        <v>624.8802036398251</v>
       </c>
       <c r="E14" t="n">
-        <v>744.7148273097154</v>
+        <v>624.8802036398251</v>
       </c>
       <c r="F14" t="n">
-        <v>445.1395613756521</v>
+        <v>325.3049377057619</v>
       </c>
       <c r="G14" t="n">
-        <v>143.6114995856065</v>
+        <v>325.3049377057619</v>
       </c>
       <c r="H14" t="n">
-        <v>107.0595880588376</v>
+        <v>107.0595880588375</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J14" t="n">
-        <v>120.8168582962057</v>
+        <v>233.1127221493323</v>
       </c>
       <c r="K14" t="n">
-        <v>360.9572303409884</v>
+        <v>473.253094194115</v>
       </c>
       <c r="L14" t="n">
-        <v>708.8426034259346</v>
+        <v>821.1384672790613</v>
       </c>
       <c r="M14" t="n">
-        <v>1102.081769679022</v>
+        <v>1322.694744013731</v>
       </c>
       <c r="N14" t="n">
-        <v>1480.413128366738</v>
+        <v>1701.026102701447</v>
       </c>
       <c r="O14" t="n">
-        <v>1870.273544070743</v>
+        <v>2006.030687174281</v>
       </c>
       <c r="P14" t="n">
-        <v>2210.726304379923</v>
+        <v>2234.187583630334</v>
       </c>
       <c r="Q14" t="n">
-        <v>2417.454421919587</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S14" t="n">
-        <v>2368.26265055612</v>
+        <v>2368.262650556118</v>
       </c>
       <c r="T14" t="n">
-        <v>2258.479629042897</v>
+        <v>2258.479629042896</v>
       </c>
       <c r="U14" t="n">
-        <v>2118.170217512657</v>
+        <v>2118.170217512656</v>
       </c>
       <c r="V14" t="n">
-        <v>2118.170217512657</v>
+        <v>1895.766868164364</v>
       </c>
       <c r="W14" t="n">
-        <v>2118.170217512657</v>
+        <v>1647.807862777731</v>
       </c>
       <c r="X14" t="n">
-        <v>1850.716001789917</v>
+        <v>1441.561789087483</v>
       </c>
       <c r="Y14" t="n">
-        <v>1571.750071121522</v>
+        <v>1162.595858419088</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697355</v>
       </c>
       <c r="C15" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106902</v>
       </c>
       <c r="D15" t="n">
-        <v>627.5887647566108</v>
+        <v>559.2064794466719</v>
       </c>
       <c r="E15" t="n">
-        <v>480.560754813482</v>
+        <v>412.1784695035431</v>
       </c>
       <c r="F15" t="n">
-        <v>345.8669567633564</v>
+        <v>277.4846714534174</v>
       </c>
       <c r="G15" t="n">
-        <v>217.138456786641</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H15" t="n">
-        <v>117.200599333339</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81831402339999</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K15" t="n">
-        <v>226.7273565210932</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L15" t="n">
-        <v>592.5492016912089</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M15" t="n">
-        <v>1077.582555201435</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N15" t="n">
-        <v>1588.848201324557</v>
+        <v>1588.848201324555</v>
       </c>
       <c r="O15" t="n">
-        <v>1981.048152108708</v>
+        <v>1981.048152108706</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.144071384405</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q15" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R15" t="n">
-        <v>2381.131432264945</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S15" t="n">
-        <v>2228.331945277685</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T15" t="n">
-        <v>2154.222766199437</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U15" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V15" t="n">
-        <v>1719.304700546021</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W15" t="n">
-        <v>1477.988831779331</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y15" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509965</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>346.4598109066938</v>
+        <v>346.4598109066943</v>
       </c>
       <c r="C16" t="n">
-        <v>291.4197661241405</v>
+        <v>291.4197661241409</v>
       </c>
       <c r="D16" t="n">
-        <v>252.9237977076696</v>
+        <v>252.92379770767</v>
       </c>
       <c r="E16" t="n">
-        <v>215.4907082247548</v>
+        <v>215.4907082247553</v>
       </c>
       <c r="F16" t="n">
-        <v>177.5859780062983</v>
+        <v>177.5859780062987</v>
       </c>
       <c r="G16" t="n">
-        <v>123.2421541299148</v>
+        <v>123.2421541299149</v>
       </c>
       <c r="H16" t="n">
-        <v>78.44543366495509</v>
+        <v>78.44543366495503</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J16" t="n">
-        <v>102.2520783385576</v>
+        <v>102.2520783385575</v>
       </c>
       <c r="K16" t="n">
         <v>248.1521299363277</v>
@@ -5443,13 +5443,13 @@
         <v>461.0550731897139</v>
       </c>
       <c r="M16" t="n">
-        <v>691.3444431704422</v>
+        <v>691.3444431704421</v>
       </c>
       <c r="N16" t="n">
         <v>922.0626487731691</v>
       </c>
       <c r="O16" t="n">
-        <v>1132.822159121985</v>
+        <v>1132.822159121986</v>
       </c>
       <c r="P16" t="n">
         <v>1308.08650670325</v>
@@ -5467,19 +5467,19 @@
         <v>1129.929199403901</v>
       </c>
       <c r="U16" t="n">
-        <v>957.314884648767</v>
+        <v>957.3148846487674</v>
       </c>
       <c r="V16" t="n">
-        <v>811.155504962956</v>
+        <v>811.1555049629563</v>
       </c>
       <c r="W16" t="n">
-        <v>639.5750282361216</v>
+        <v>639.5750282361219</v>
       </c>
       <c r="X16" t="n">
-        <v>522.8984888872636</v>
+        <v>522.8984888872641</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.4392548353072</v>
+        <v>415.4392548353077</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1102.316769822194</v>
       </c>
       <c r="D17" t="n">
-        <v>904.9303411506594</v>
+        <v>904.9303411506596</v>
       </c>
       <c r="E17" t="n">
-        <v>685.5821573580077</v>
+        <v>685.5821573580081</v>
       </c>
       <c r="F17" t="n">
-        <v>446.8685027694196</v>
+        <v>446.86850276942</v>
       </c>
       <c r="G17" t="n">
-        <v>206.2020523248491</v>
+        <v>206.202052324849</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I17" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J17" t="n">
         <v>120.8168582962056</v>
@@ -5522,40 +5522,40 @@
         <v>708.8426034259346</v>
       </c>
       <c r="M17" t="n">
-        <v>1102.081769679022</v>
+        <v>1274.02809881185</v>
       </c>
       <c r="N17" t="n">
-        <v>1480.413128366738</v>
+        <v>1730.210222024461</v>
       </c>
       <c r="O17" t="n">
-        <v>1785.417712839572</v>
+        <v>2035.214806497295</v>
       </c>
       <c r="P17" t="n">
-        <v>2091.425373820523</v>
+        <v>2263.371702953348</v>
       </c>
       <c r="Q17" t="n">
-        <v>2357.803956639886</v>
+        <v>2357.803956639885</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S17" t="n">
-        <v>2429.124261901595</v>
+        <v>2429.124261901593</v>
       </c>
       <c r="T17" t="n">
-        <v>2380.202851733848</v>
+        <v>2380.202851733846</v>
       </c>
       <c r="U17" t="n">
-        <v>2300.755051549083</v>
+        <v>2300.755051549082</v>
       </c>
       <c r="V17" t="n">
-        <v>2139.213313546266</v>
+        <v>2139.213313546265</v>
       </c>
       <c r="W17" t="n">
-        <v>1952.115919505109</v>
+        <v>1952.115919505108</v>
       </c>
       <c r="X17" t="n">
-        <v>1745.523315127844</v>
+        <v>1745.523315127843</v>
       </c>
       <c r="Y17" t="n">
         <v>1527.418995804923</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697355</v>
       </c>
       <c r="C18" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106902</v>
       </c>
       <c r="D18" t="n">
-        <v>627.5887647566108</v>
+        <v>501.0404907009023</v>
       </c>
       <c r="E18" t="n">
-        <v>480.560754813482</v>
+        <v>354.0124807577735</v>
       </c>
       <c r="F18" t="n">
         <v>345.8669567633564</v>
@@ -5589,55 +5589,55 @@
         <v>117.200599333339</v>
       </c>
       <c r="I18" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81831402339998</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K18" t="n">
-        <v>278.3088665835886</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L18" t="n">
-        <v>592.5492016912084</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M18" t="n">
-        <v>1077.582555201435</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N18" t="n">
-        <v>1588.848201324557</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O18" t="n">
-        <v>1981.048152108708</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.144071384405</v>
+        <v>2394.979727980007</v>
       </c>
       <c r="Q18" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.915701169999</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S18" t="n">
-        <v>2288.116214182739</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T18" t="n">
-        <v>2099.431110348725</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U18" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V18" t="n">
-        <v>1719.304700546021</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W18" t="n">
-        <v>1477.988831779331</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y18" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509965</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I19" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J19" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="K19" t="n">
-        <v>82.42250176804339</v>
+        <v>82.42250176804336</v>
       </c>
       <c r="L19" t="n">
         <v>183.0295811683029</v>
@@ -5686,37 +5686,37 @@
         <v>419.445429045505</v>
       </c>
       <c r="O19" t="n">
-        <v>517.9090755411947</v>
+        <v>517.9090755411946</v>
       </c>
       <c r="P19" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="Q19" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="R19" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="S19" t="n">
         <v>542.6053327742617</v>
       </c>
       <c r="T19" t="n">
-        <v>484.8639156911821</v>
+        <v>484.8639156911822</v>
       </c>
       <c r="U19" t="n">
-        <v>373.1112122815235</v>
+        <v>355.3653310380968</v>
       </c>
       <c r="V19" t="n">
-        <v>287.8134439411876</v>
+        <v>270.0675626977611</v>
       </c>
       <c r="W19" t="n">
-        <v>177.0945785598283</v>
+        <v>159.3486973164019</v>
       </c>
       <c r="X19" t="n">
-        <v>103.5337693130196</v>
+        <v>103.5337693130193</v>
       </c>
       <c r="Y19" t="n">
-        <v>56.93614660653824</v>
+        <v>56.9361466065381</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5729,28 @@
         <v>1308.812992388145</v>
       </c>
       <c r="C20" t="n">
-        <v>1102.316769822194</v>
+        <v>1102.316769822193</v>
       </c>
       <c r="D20" t="n">
-        <v>904.9303411506589</v>
+        <v>904.9303411506587</v>
       </c>
       <c r="E20" t="n">
-        <v>685.5821573580074</v>
+        <v>685.5821573580073</v>
       </c>
       <c r="F20" t="n">
-        <v>446.8685027694194</v>
+        <v>446.8685027694193</v>
       </c>
       <c r="G20" t="n">
-        <v>206.2020523248491</v>
+        <v>206.202052324849</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I20" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J20" t="n">
-        <v>120.8168582962057</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K20" t="n">
         <v>360.9572303409884</v>
@@ -5759,31 +5759,31 @@
         <v>708.8426034259346</v>
       </c>
       <c r="M20" t="n">
-        <v>1102.081769679022</v>
+        <v>1274.02809881185</v>
       </c>
       <c r="N20" t="n">
-        <v>1480.413128366738</v>
+        <v>1652.359457499565</v>
       </c>
       <c r="O20" t="n">
-        <v>1785.417712839572</v>
+        <v>1957.364041972399</v>
       </c>
       <c r="P20" t="n">
-        <v>2185.520938428452</v>
+        <v>2185.520938428453</v>
       </c>
       <c r="Q20" t="n">
-        <v>2357.803956639887</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S20" t="n">
-        <v>2429.124261901595</v>
+        <v>2429.124261901593</v>
       </c>
       <c r="T20" t="n">
-        <v>2380.202851733848</v>
+        <v>2380.202851733846</v>
       </c>
       <c r="U20" t="n">
-        <v>2300.755051549083</v>
+        <v>2300.755051549082</v>
       </c>
       <c r="V20" t="n">
         <v>2139.213313546265</v>
@@ -5795,7 +5795,7 @@
         <v>1745.523315127843</v>
       </c>
       <c r="Y20" t="n">
-        <v>1527.418995804923</v>
+        <v>1527.418995804922</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>801.5828004697373</v>
+        <v>801.5828004697355</v>
       </c>
       <c r="C21" t="n">
-        <v>639.879127710692</v>
+        <v>639.8791277106902</v>
       </c>
       <c r="D21" t="n">
-        <v>501.0404907009041</v>
+        <v>559.2064794466719</v>
       </c>
       <c r="E21" t="n">
-        <v>354.0124807577753</v>
+        <v>412.1784695035431</v>
       </c>
       <c r="F21" t="n">
-        <v>219.3186827076497</v>
+        <v>277.4846714534174</v>
       </c>
       <c r="G21" t="n">
-        <v>148.756171476702</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I21" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81831402339999</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K21" t="n">
-        <v>226.7273565210932</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L21" t="n">
-        <v>592.5492016912089</v>
+        <v>592.549201691207</v>
       </c>
       <c r="M21" t="n">
-        <v>1077.582555201435</v>
+        <v>1077.582555201433</v>
       </c>
       <c r="N21" t="n">
-        <v>1588.848201324557</v>
+        <v>1588.848201324555</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.048152108708</v>
+        <v>1981.048152108706</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.144071384405</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q21" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R21" t="n">
-        <v>2381.131432264945</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S21" t="n">
-        <v>2228.331945277685</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T21" t="n">
-        <v>2039.646841443671</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U21" t="n">
-        <v>1821.152049041981</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V21" t="n">
-        <v>1592.756426490315</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W21" t="n">
-        <v>1351.440557723625</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X21" t="n">
-        <v>1153.523569601419</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y21" t="n">
-        <v>961.0022432509983</v>
+        <v>961.0022432509965</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="H22" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I22" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J22" t="n">
-        <v>48.81831402339999</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="K22" t="n">
-        <v>82.4225017680434</v>
+        <v>82.42250176804336</v>
       </c>
       <c r="L22" t="n">
         <v>183.0295811683029</v>
@@ -5923,37 +5923,37 @@
         <v>419.445429045505</v>
       </c>
       <c r="O22" t="n">
-        <v>517.9090755411947</v>
+        <v>517.9090755411946</v>
       </c>
       <c r="P22" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="Q22" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="R22" t="n">
-        <v>580.8775592693326</v>
+        <v>563.1316780259056</v>
       </c>
       <c r="S22" t="n">
-        <v>542.6053327742617</v>
+        <v>524.8594515308348</v>
       </c>
       <c r="T22" t="n">
-        <v>467.118034447756</v>
+        <v>467.1180344477553</v>
       </c>
       <c r="U22" t="n">
-        <v>355.3653310380975</v>
+        <v>355.3653310380968</v>
       </c>
       <c r="V22" t="n">
-        <v>270.0675626977616</v>
+        <v>270.0675626977611</v>
       </c>
       <c r="W22" t="n">
-        <v>159.3486973164023</v>
+        <v>159.3486973164019</v>
       </c>
       <c r="X22" t="n">
-        <v>103.5337693130196</v>
+        <v>103.5337693130193</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.93614660653825</v>
+        <v>56.9361466065381</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1308.812992388145</v>
+        <v>1308.812992388144</v>
       </c>
       <c r="C23" t="n">
-        <v>1102.316769822194</v>
+        <v>1102.316769822193</v>
       </c>
       <c r="D23" t="n">
-        <v>904.9303411506589</v>
+        <v>904.9303411506585</v>
       </c>
       <c r="E23" t="n">
-        <v>685.5821573580074</v>
+        <v>685.582157358007</v>
       </c>
       <c r="F23" t="n">
-        <v>446.8685027694195</v>
+        <v>446.8685027694194</v>
       </c>
       <c r="G23" t="n">
-        <v>206.2020523248491</v>
+        <v>206.202052324849</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J23" t="n">
-        <v>120.8168582962056</v>
+        <v>281.7793673512139</v>
       </c>
       <c r="K23" t="n">
-        <v>360.9572303409884</v>
+        <v>521.9197393959967</v>
       </c>
       <c r="L23" t="n">
-        <v>708.8426034259346</v>
+        <v>869.8051124809429</v>
       </c>
       <c r="M23" t="n">
-        <v>1102.081769679022</v>
+        <v>1263.044278734031</v>
       </c>
       <c r="N23" t="n">
-        <v>1480.413128366738</v>
+        <v>1641.375637421746</v>
       </c>
       <c r="O23" t="n">
-        <v>1785.417712839572</v>
+        <v>2118.326551027407</v>
       </c>
       <c r="P23" t="n">
-        <v>2185.520938428452</v>
+        <v>2346.483447483461</v>
       </c>
       <c r="Q23" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S23" t="n">
-        <v>2429.124261901594</v>
+        <v>2429.124261901593</v>
       </c>
       <c r="T23" t="n">
-        <v>2380.202851733847</v>
+        <v>2380.202851733846</v>
       </c>
       <c r="U23" t="n">
-        <v>2300.755051549083</v>
+        <v>2300.755051549082</v>
       </c>
       <c r="V23" t="n">
         <v>2139.213313546265</v>
       </c>
       <c r="W23" t="n">
-        <v>1952.115919505108</v>
+        <v>1952.115919505107</v>
       </c>
       <c r="X23" t="n">
-        <v>1745.523315127843</v>
+        <v>1745.523315127842</v>
       </c>
       <c r="Y23" t="n">
-        <v>1527.418995804923</v>
+        <v>1527.418995804922</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697355</v>
       </c>
       <c r="C24" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106902</v>
       </c>
       <c r="D24" t="n">
-        <v>627.5887647566108</v>
+        <v>501.0404907009023</v>
       </c>
       <c r="E24" t="n">
-        <v>480.560754813482</v>
+        <v>354.0124807577735</v>
       </c>
       <c r="F24" t="n">
-        <v>345.8669567633564</v>
+        <v>219.3186827076479</v>
       </c>
       <c r="G24" t="n">
-        <v>217.1384567866409</v>
+        <v>90.59018273093244</v>
       </c>
       <c r="H24" t="n">
-        <v>117.200599333339</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J24" t="n">
         <v>109.0724605565061</v>
@@ -6072,46 +6072,46 @@
         <v>338.5630131166948</v>
       </c>
       <c r="L24" t="n">
-        <v>704.3848582868104</v>
+        <v>592.549201691207</v>
       </c>
       <c r="M24" t="n">
-        <v>1189.418211797037</v>
+        <v>1077.582555201433</v>
       </c>
       <c r="N24" t="n">
-        <v>1588.848201324557</v>
+        <v>1588.848201324555</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.048152108708</v>
+        <v>1981.048152108706</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.144071384405</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q24" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R24" t="n">
-        <v>2440.915701169999</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S24" t="n">
-        <v>2288.116214182739</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.195115499377</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U24" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V24" t="n">
-        <v>1719.304700546021</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W24" t="n">
-        <v>1477.988831779331</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y24" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509965</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="K25" t="n">
-        <v>82.42250176804339</v>
+        <v>82.42250176804336</v>
       </c>
       <c r="L25" t="n">
         <v>183.0295811683029</v>
@@ -6160,37 +6160,37 @@
         <v>419.445429045505</v>
       </c>
       <c r="O25" t="n">
-        <v>517.9090755411947</v>
+        <v>517.9090755411946</v>
       </c>
       <c r="P25" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="Q25" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="R25" t="n">
-        <v>580.8775592693326</v>
+        <v>563.1316780259056</v>
       </c>
       <c r="S25" t="n">
-        <v>524.8594515308356</v>
+        <v>524.8594515308348</v>
       </c>
       <c r="T25" t="n">
-        <v>467.118034447756</v>
+        <v>467.1180344477553</v>
       </c>
       <c r="U25" t="n">
-        <v>355.3653310380974</v>
+        <v>355.3653310380968</v>
       </c>
       <c r="V25" t="n">
-        <v>270.0675626977616</v>
+        <v>270.0675626977611</v>
       </c>
       <c r="W25" t="n">
-        <v>159.3486973164023</v>
+        <v>159.3486973164019</v>
       </c>
       <c r="X25" t="n">
-        <v>103.5337693130196</v>
+        <v>103.5337693130193</v>
       </c>
       <c r="Y25" t="n">
-        <v>56.93614660653824</v>
+        <v>56.9361466065381</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1743.233621313474</v>
+        <v>1372.404442476375</v>
       </c>
       <c r="C26" t="n">
-        <v>1475.875787402048</v>
+        <v>1105.046608564949</v>
       </c>
       <c r="D26" t="n">
-        <v>1217.627747385038</v>
+        <v>846.7985685479387</v>
       </c>
       <c r="E26" t="n">
-        <v>937.4179522469113</v>
+        <v>637.8426863128482</v>
       </c>
       <c r="F26" t="n">
-        <v>637.8426863128481</v>
+        <v>637.8426863128482</v>
       </c>
       <c r="G26" t="n">
-        <v>336.3146245228024</v>
+        <v>336.3146245228025</v>
       </c>
       <c r="H26" t="n">
-        <v>118.0692748758781</v>
+        <v>118.0692748758782</v>
       </c>
       <c r="I26" t="n">
-        <v>59.82800084044057</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J26" t="n">
         <v>244.1224089663729</v>
@@ -6230,46 +6230,46 @@
         <v>596.5586448642823</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.295183949754</v>
+        <v>1056.739881802355</v>
       </c>
       <c r="M26" t="n">
-        <v>1512.830214055969</v>
+        <v>1562.27491190857</v>
       </c>
       <c r="N26" t="n">
-        <v>2003.457436596811</v>
+        <v>2052.902134449412</v>
       </c>
       <c r="O26" t="n">
-        <v>2420.757884922772</v>
+        <v>2470.202582775373</v>
       </c>
       <c r="P26" t="n">
-        <v>2761.210645231952</v>
+        <v>2761.210645231954</v>
       </c>
       <c r="Q26" t="n">
-        <v>2967.938762771616</v>
+        <v>2967.938762771617</v>
       </c>
       <c r="R26" t="n">
-        <v>2991.400042022028</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="S26" t="n">
-        <v>2918.746991408148</v>
+        <v>2918.74699140815</v>
       </c>
       <c r="T26" t="n">
-        <v>2808.963969894926</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="U26" t="n">
-        <v>2668.654558364687</v>
+        <v>2668.654558364688</v>
       </c>
       <c r="V26" t="n">
-        <v>2446.251209016395</v>
+        <v>2446.251209016396</v>
       </c>
       <c r="W26" t="n">
-        <v>2198.292203629762</v>
+        <v>2198.292203629764</v>
       </c>
       <c r="X26" t="n">
-        <v>1930.837987907021</v>
+        <v>1930.837987907023</v>
       </c>
       <c r="Y26" t="n">
-        <v>1930.837987907021</v>
+        <v>1651.872057238628</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6291,16 @@
         <v>476.8578241704183</v>
       </c>
       <c r="F27" t="n">
-        <v>342.1640261202926</v>
+        <v>356.8766435803969</v>
       </c>
       <c r="G27" t="n">
-        <v>213.4355261435772</v>
+        <v>228.1481436036815</v>
       </c>
       <c r="H27" t="n">
-        <v>113.4976686902753</v>
+        <v>128.2102861503796</v>
       </c>
       <c r="I27" t="n">
-        <v>59.82800084044057</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J27" t="n">
         <v>120.0821473735467</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357.4694977237347</v>
+        <v>357.4694977237343</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4294529411814</v>
+        <v>302.429452941181</v>
       </c>
       <c r="D28" t="n">
-        <v>263.9334845247105</v>
+        <v>263.9334845247101</v>
       </c>
       <c r="E28" t="n">
-        <v>226.5003950417957</v>
+        <v>226.5003950417954</v>
       </c>
       <c r="F28" t="n">
-        <v>188.5956648233392</v>
+        <v>188.5956648233389</v>
       </c>
       <c r="G28" t="n">
-        <v>134.2518409469556</v>
+        <v>134.2518409469555</v>
       </c>
       <c r="H28" t="n">
-        <v>89.45512048199589</v>
+        <v>89.45512048199569</v>
       </c>
       <c r="I28" t="n">
-        <v>59.82800084044057</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J28" t="n">
         <v>113.2617651555981</v>
       </c>
       <c r="K28" t="n">
-        <v>259.1618167533676</v>
+        <v>259.1618167533684</v>
       </c>
       <c r="L28" t="n">
-        <v>472.0647600067534</v>
+        <v>472.0647600067545</v>
       </c>
       <c r="M28" t="n">
-        <v>702.3541299874818</v>
+        <v>702.3541299874828</v>
       </c>
       <c r="N28" t="n">
-        <v>933.0723355902089</v>
+        <v>933.0723355902098</v>
       </c>
       <c r="O28" t="n">
-        <v>1143.831845939025</v>
+        <v>1143.831845939026</v>
       </c>
       <c r="P28" t="n">
-        <v>1319.09619352029</v>
+        <v>1319.096193520291</v>
       </c>
       <c r="Q28" t="n">
-        <v>1393.621609119897</v>
+        <v>1393.621609119898</v>
       </c>
       <c r="R28" t="n">
         <v>1358.675752490042</v>
@@ -6412,22 +6412,22 @@
         <v>1259.541914649496</v>
       </c>
       <c r="T28" t="n">
-        <v>1140.938886220941</v>
+        <v>1140.938886220942</v>
       </c>
       <c r="U28" t="n">
         <v>968.3245714658078</v>
       </c>
       <c r="V28" t="n">
-        <v>822.1651917799968</v>
+        <v>822.1651917799967</v>
       </c>
       <c r="W28" t="n">
-        <v>650.5847150531624</v>
+        <v>650.5847150531622</v>
       </c>
       <c r="X28" t="n">
-        <v>533.9081757043045</v>
+        <v>533.9081757043043</v>
       </c>
       <c r="Y28" t="n">
-        <v>426.4489416523481</v>
+        <v>426.4489416523477</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1622.496875519835</v>
+        <v>1385.417081343973</v>
       </c>
       <c r="C29" t="n">
-        <v>1355.139041608409</v>
+        <v>1118.059247432547</v>
       </c>
       <c r="D29" t="n">
-        <v>1096.891001591399</v>
+        <v>859.8112074155373</v>
       </c>
       <c r="E29" t="n">
-        <v>816.6812064532721</v>
+        <v>579.6014122774105</v>
       </c>
       <c r="F29" t="n">
-        <v>517.105940519209</v>
+        <v>579.6014122774105</v>
       </c>
       <c r="G29" t="n">
-        <v>215.5778787291635</v>
+        <v>278.0733504873649</v>
       </c>
       <c r="H29" t="n">
-        <v>59.82800084044057</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="I29" t="n">
-        <v>59.82800084044057</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J29" t="n">
         <v>244.1224089663729</v>
       </c>
       <c r="K29" t="n">
-        <v>596.5586448642823</v>
+        <v>570.5752262620955</v>
       </c>
       <c r="L29" t="n">
-        <v>1056.739881802355</v>
+        <v>1030.756463200168</v>
       </c>
       <c r="M29" t="n">
-        <v>1512.830214055969</v>
+        <v>1536.291493306383</v>
       </c>
       <c r="N29" t="n">
-        <v>2003.457436596811</v>
+        <v>2026.918715847225</v>
       </c>
       <c r="O29" t="n">
-        <v>2420.757884922772</v>
+        <v>2444.219164173186</v>
       </c>
       <c r="P29" t="n">
-        <v>2761.210645231952</v>
+        <v>2784.671924482366</v>
       </c>
       <c r="Q29" t="n">
-        <v>2967.938762771616</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="R29" t="n">
-        <v>2991.400042022028</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="S29" t="n">
-        <v>2918.746991408148</v>
+        <v>2918.746991408151</v>
       </c>
       <c r="T29" t="n">
-        <v>2918.746991408148</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="U29" t="n">
-        <v>2918.746991408148</v>
+        <v>2668.654558364688</v>
       </c>
       <c r="V29" t="n">
-        <v>2696.343642059856</v>
+        <v>2446.251209016396</v>
       </c>
       <c r="W29" t="n">
-        <v>2448.384636673224</v>
+        <v>2198.292203629763</v>
       </c>
       <c r="X29" t="n">
-        <v>2180.930420950483</v>
+        <v>1930.837987907023</v>
       </c>
       <c r="Y29" t="n">
-        <v>1901.964490282088</v>
+        <v>1664.884696106226</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>113.4976686902753</v>
       </c>
       <c r="I30" t="n">
-        <v>59.82800084044057</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J30" t="n">
         <v>120.0821473735467</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>357.4694977237338</v>
+        <v>357.4694977237344</v>
       </c>
       <c r="C31" t="n">
-        <v>302.4294529411806</v>
+        <v>302.4294529411812</v>
       </c>
       <c r="D31" t="n">
-        <v>263.9334845247097</v>
+        <v>263.9334845247104</v>
       </c>
       <c r="E31" t="n">
-        <v>226.5003950417949</v>
+        <v>226.5003950417956</v>
       </c>
       <c r="F31" t="n">
-        <v>188.5956648233384</v>
+        <v>188.5956648233391</v>
       </c>
       <c r="G31" t="n">
-        <v>134.2518409469546</v>
+        <v>134.2518409469554</v>
       </c>
       <c r="H31" t="n">
-        <v>89.45512048199521</v>
+        <v>89.45512048199566</v>
       </c>
       <c r="I31" t="n">
-        <v>59.82800084044057</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J31" t="n">
-        <v>113.2617651555979</v>
+        <v>113.261765155598</v>
       </c>
       <c r="K31" t="n">
         <v>259.161816753368</v>
       </c>
       <c r="L31" t="n">
-        <v>472.0647600067538</v>
+        <v>472.0647600067542</v>
       </c>
       <c r="M31" t="n">
-        <v>702.3541299874821</v>
+        <v>702.3541299874826</v>
       </c>
       <c r="N31" t="n">
-        <v>933.0723355902089</v>
+        <v>933.0723355902098</v>
       </c>
       <c r="O31" t="n">
-        <v>1143.831845939025</v>
+        <v>1143.831845939026</v>
       </c>
       <c r="P31" t="n">
         <v>1319.09619352029</v>
       </c>
       <c r="Q31" t="n">
-        <v>1393.621609119897</v>
+        <v>1393.621609119898</v>
       </c>
       <c r="R31" t="n">
         <v>1358.675752490042</v>
@@ -6652,19 +6652,19 @@
         <v>1140.938886220941</v>
       </c>
       <c r="U31" t="n">
-        <v>968.3245714658073</v>
+        <v>968.3245714658077</v>
       </c>
       <c r="V31" t="n">
-        <v>822.1651917799962</v>
+        <v>822.1651917799967</v>
       </c>
       <c r="W31" t="n">
-        <v>650.5847150531617</v>
+        <v>650.5847150531622</v>
       </c>
       <c r="X31" t="n">
-        <v>533.9081757043039</v>
+        <v>533.9081757043043</v>
       </c>
       <c r="Y31" t="n">
-        <v>426.4489416523472</v>
+        <v>426.4489416523478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1524.03932831595</v>
+        <v>1524.039328315949</v>
       </c>
       <c r="C32" t="n">
-        <v>1287.718783610434</v>
+        <v>1287.718783610433</v>
       </c>
       <c r="D32" t="n">
-        <v>1060.508032799334</v>
+        <v>1060.508032799333</v>
       </c>
       <c r="E32" t="n">
-        <v>811.3355268671171</v>
+        <v>811.3355268671166</v>
       </c>
       <c r="F32" t="n">
-        <v>542.7975501389637</v>
+        <v>542.7975501389635</v>
       </c>
       <c r="G32" t="n">
-        <v>272.3067775548282</v>
+        <v>272.3067775548279</v>
       </c>
       <c r="H32" t="n">
-        <v>85.09871711381409</v>
+        <v>85.09871711381393</v>
       </c>
       <c r="I32" t="n">
-        <v>57.8947322842865</v>
+        <v>57.89473228428647</v>
       </c>
       <c r="J32" t="n">
-        <v>272.6087875609312</v>
+        <v>272.6087875609313</v>
       </c>
       <c r="K32" t="n">
-        <v>655.464670609553</v>
+        <v>655.4646706095532</v>
       </c>
       <c r="L32" t="n">
-        <v>1003.350043694499</v>
+        <v>1013.544895245453</v>
       </c>
       <c r="M32" t="n">
-        <v>1396.589209947587</v>
+        <v>1406.784061498541</v>
       </c>
       <c r="N32" t="n">
-        <v>1785.115420186259</v>
+        <v>1927.830931190096</v>
       </c>
       <c r="O32" t="n">
-        <v>2232.835515662932</v>
+        <v>2375.551026666769</v>
       </c>
       <c r="P32" t="n">
-        <v>2603.707923122824</v>
+        <v>2746.423434126661</v>
       </c>
       <c r="Q32" t="n">
-        <v>2840.8556878132</v>
+        <v>2840.855687813198</v>
       </c>
       <c r="R32" t="n">
-        <v>2894.736614214325</v>
+        <v>2894.736614214323</v>
       </c>
       <c r="S32" t="n">
-        <v>2853.120852806356</v>
+        <v>2853.120852806353</v>
       </c>
       <c r="T32" t="n">
-        <v>2774.375120499044</v>
+        <v>2774.375120499041</v>
       </c>
       <c r="U32" t="n">
-        <v>2665.102998174714</v>
+        <v>2665.102998174712</v>
       </c>
       <c r="V32" t="n">
-        <v>2473.736938032332</v>
+        <v>2473.73693803233</v>
       </c>
       <c r="W32" t="n">
-        <v>2256.815221851609</v>
+        <v>2256.815221851608</v>
       </c>
       <c r="X32" t="n">
-        <v>2020.398295334778</v>
+        <v>2020.398295334777</v>
       </c>
       <c r="Y32" t="n">
-        <v>1772.469653872293</v>
+        <v>1772.469653872292</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>922.4948753262263</v>
+        <v>922.4948753262258</v>
       </c>
       <c r="C33" t="n">
-        <v>760.791202567181</v>
+        <v>760.7912025671806</v>
       </c>
       <c r="D33" t="n">
-        <v>621.9525655573931</v>
+        <v>621.9525655573926</v>
       </c>
       <c r="E33" t="n">
-        <v>474.9245556142643</v>
+        <v>474.9245556142639</v>
       </c>
       <c r="F33" t="n">
-        <v>340.2307575641387</v>
+        <v>340.2307575641382</v>
       </c>
       <c r="G33" t="n">
-        <v>211.5022575874233</v>
+        <v>211.5022575874228</v>
       </c>
       <c r="H33" t="n">
-        <v>111.5644001341213</v>
+        <v>126.2770175942255</v>
       </c>
       <c r="I33" t="n">
-        <v>57.8947322842865</v>
+        <v>57.89473228428647</v>
       </c>
       <c r="J33" t="n">
         <v>118.1488788173926</v>
@@ -6783,16 +6783,16 @@
         <v>347.6394313775813</v>
       </c>
       <c r="L33" t="n">
-        <v>713.461276547697</v>
+        <v>713.4612765476969</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.494630057924</v>
+        <v>1198.494630057923</v>
       </c>
       <c r="N33" t="n">
-        <v>1709.760276181046</v>
+        <v>1709.760276181045</v>
       </c>
       <c r="O33" t="n">
-        <v>2101.960226965197</v>
+        <v>2101.960226965196</v>
       </c>
       <c r="P33" t="n">
         <v>2404.056146240894</v>
@@ -6801,22 +6801,22 @@
         <v>2561.827776026488</v>
       </c>
       <c r="R33" t="n">
-        <v>2502.043507121434</v>
+        <v>2502.043507121433</v>
       </c>
       <c r="S33" t="n">
         <v>2349.244020134174</v>
       </c>
       <c r="T33" t="n">
-        <v>2160.55891630016</v>
+        <v>2160.558916300159</v>
       </c>
       <c r="U33" t="n">
-        <v>1942.06412389847</v>
+        <v>1942.064123898469</v>
       </c>
       <c r="V33" t="n">
-        <v>1713.668501346804</v>
+        <v>1713.668501346803</v>
       </c>
       <c r="W33" t="n">
-        <v>1472.352632580114</v>
+        <v>1472.352632580113</v>
       </c>
       <c r="X33" t="n">
         <v>1274.435644457908</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.6853742905652</v>
+        <v>139.6853742905645</v>
       </c>
       <c r="C34" t="n">
-        <v>115.6826187139219</v>
+        <v>115.6826187139213</v>
       </c>
       <c r="D34" t="n">
-        <v>108.2239395033611</v>
+        <v>108.2239395033606</v>
       </c>
       <c r="E34" t="n">
-        <v>101.8281392263563</v>
+        <v>101.828139226356</v>
       </c>
       <c r="F34" t="n">
-        <v>94.96069821380985</v>
+        <v>94.96069821380959</v>
       </c>
       <c r="G34" t="n">
-        <v>71.65416354333627</v>
+        <v>71.65416354333613</v>
       </c>
       <c r="H34" t="n">
-        <v>57.8947322842865</v>
+        <v>57.89473228428647</v>
       </c>
       <c r="I34" t="n">
-        <v>57.8947322842865</v>
+        <v>57.89473228428647</v>
       </c>
       <c r="J34" t="n">
-        <v>57.8947322842865</v>
+        <v>57.89473228428647</v>
       </c>
       <c r="K34" t="n">
-        <v>91.49892002892992</v>
+        <v>234.214431032769</v>
       </c>
       <c r="L34" t="n">
-        <v>250.99333097835</v>
+        <v>334.8215104330285</v>
       </c>
       <c r="M34" t="n">
-        <v>368.9868371059517</v>
+        <v>452.8150165606303</v>
       </c>
       <c r="N34" t="n">
-        <v>487.4091788555521</v>
+        <v>592.3542416058699</v>
       </c>
       <c r="O34" t="n">
-        <v>585.8728253512418</v>
+        <v>833.5333991053988</v>
       </c>
       <c r="P34" t="n">
-        <v>791.5568200832186</v>
+        <v>896.5018828335366</v>
       </c>
       <c r="Q34" t="n">
-        <v>896.5018828335383</v>
+        <v>896.5018828335366</v>
       </c>
       <c r="R34" t="n">
-        <v>892.5933154095929</v>
+        <v>892.5933154095914</v>
       </c>
       <c r="S34" t="n">
-        <v>824.4967667749569</v>
+        <v>824.4967667749554</v>
       </c>
       <c r="T34" t="n">
-        <v>736.9310275523121</v>
+        <v>736.9310275523108</v>
       </c>
       <c r="U34" t="n">
-        <v>595.3540020030885</v>
+        <v>595.3540020030872</v>
       </c>
       <c r="V34" t="n">
-        <v>480.2319115231875</v>
+        <v>480.2319115231863</v>
       </c>
       <c r="W34" t="n">
-        <v>339.688724002263</v>
+        <v>339.6887240022619</v>
       </c>
       <c r="X34" t="n">
-        <v>254.0494738593152</v>
+        <v>254.0494738593142</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.6275290132687</v>
+        <v>177.6275290132678</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810481</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556528</v>
+        <v>826.9339095659943</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N35" t="n">
-        <v>1647.163263196456</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O35" t="n">
-        <v>1952.16784766929</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -7075,31 +7075,31 @@
         <v>51.10067436208574</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54268635500834</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="E37" t="n">
-        <v>81.02642599070928</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="F37" t="n">
-        <v>96.04791054150579</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="G37" t="n">
-        <v>94.93529841688803</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>96.20682289912179</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>96.20682289912179</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>96.20682289912179</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437652</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440247</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
         <v>348.4115961716265</v>
@@ -7172,28 +7172,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>692.1751396617389</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.060512746685</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2344.792518616376</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
@@ -7251,13 +7251,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7312,37 +7312,37 @@
         <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54268635500834</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>81.02642599070928</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F40" t="n">
-        <v>96.04791054150579</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="G40" t="n">
-        <v>94.93529841688803</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>96.20682289912179</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>96.20682289912179</v>
+        <v>74.23504503930332</v>
       </c>
       <c r="J40" t="n">
-        <v>96.20682289912179</v>
+        <v>74.23504503930332</v>
       </c>
       <c r="K40" t="n">
-        <v>129.8110106437652</v>
+        <v>107.8392327839467</v>
       </c>
       <c r="L40" t="n">
-        <v>230.4180900440247</v>
+        <v>208.4463121842062</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4115961716265</v>
+        <v>326.439818311808</v>
       </c>
       <c r="N40" t="n">
-        <v>466.8339379212268</v>
+        <v>444.8621600614084</v>
       </c>
       <c r="O40" t="n">
         <v>565.2975844169165</v>
@@ -7421,16 +7421,16 @@
         <v>1268.831904508741</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.339019109512</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O41" t="n">
-        <v>1992.343603582346</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P41" t="n">
-        <v>2220.500500038399</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7549,46 +7549,46 @@
         <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54268635500837</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>65.54268635500837</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>65.54268635500837</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G43" t="n">
-        <v>64.43007423039064</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>64.43007423039064</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>64.43007423039064</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>64.43007423039064</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>98.03426197503406</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>198.6413413752936</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>316.6348475028953</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>435.0571892524957</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>533.5208357481854</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>610.3445915900695</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>610.3445915900695</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
         <v>628.266068145054</v>
@@ -7646,28 +7646,28 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L44" t="n">
-        <v>751.3007196776761</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M44" t="n">
-        <v>1309.007660421796</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N44" t="n">
-        <v>1687.339019109512</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O44" t="n">
-        <v>2156.811378073378</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7719,7 +7719,7 @@
         <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208573</v>
@@ -7810,13 +7810,13 @@
         <v>84.70486210672914</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
         <v>566.4101965415339</v>
@@ -7988,16 +7988,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>472.8639721885593</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>494.7393209294323</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,25 +8055,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>370.8926069075345</v>
+        <v>607.8524853807721</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>374.3029878464882</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8231,7 +8231,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>322.6512910759071</v>
+        <v>395.3770933716681</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8295,7 +8295,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8304,7 +8304,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>370.8926069075345</v>
+        <v>139.0839679578466</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8541,13 +8541,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>234.7709975048689</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>291.7022726996902</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8781,7 +8781,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>399.0557053672195</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>291.7022726996902</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>510.1797769540909</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9240,13 +9240,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>429.9899134778344</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>160.1351643640747</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,13 +9477,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>291.7022726996902</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>369.1271392019682</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9720,13 +9720,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>369.1271392019682</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>510.1797769540922</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>28.7008029097568</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>179.8765037389535</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8765037389534</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>60.59606061216718</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.94461568701841</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,10 +24449,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>70.54137377400635</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24689,13 +24689,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>61.87051704061933</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>57.6588612950832</v>
@@ -24731,10 +24731,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149371</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>12.88251247892288</v>
       </c>
     </row>
     <row r="30">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>751066.5143507662</v>
+        <v>751066.5143507661</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>751066.5143507662</v>
+        <v>751066.5143507661</v>
       </c>
     </row>
     <row r="4">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614099.2483953456</v>
+      </c>
+      <c r="C2" t="n">
         <v>614099.2483953454</v>
-      </c>
-      <c r="C2" t="n">
-        <v>614099.2483953453</v>
       </c>
       <c r="D2" t="n">
         <v>614099.2483953453</v>
       </c>
       <c r="E2" t="n">
-        <v>556710.7817988246</v>
+        <v>556710.7817988253</v>
       </c>
       <c r="F2" t="n">
-        <v>556710.7817988248</v>
+        <v>556710.7817988253</v>
       </c>
       <c r="G2" t="n">
         <v>614099.2483953456</v>
       </c>
       <c r="H2" t="n">
-        <v>614099.2483953453</v>
+        <v>614099.2483953459</v>
       </c>
       <c r="I2" t="n">
-        <v>614099.2483953452</v>
+        <v>614099.2483953456</v>
       </c>
       <c r="J2" t="n">
-        <v>590720.9903080836</v>
+        <v>590720.9903080832</v>
       </c>
       <c r="K2" t="n">
         <v>590720.9903080835</v>
       </c>
       <c r="L2" t="n">
-        <v>614099.2483953455</v>
+        <v>614099.2483953456</v>
       </c>
       <c r="M2" t="n">
-        <v>614099.2483953451</v>
+        <v>614099.2483953452</v>
       </c>
       <c r="N2" t="n">
         <v>614099.2483953452</v>
@@ -26353,7 +26353,7 @@
         <v>614099.2483953455</v>
       </c>
       <c r="P2" t="n">
-        <v>614099.2483953454</v>
+        <v>614099.2483953453</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167942.6502382271</v>
+        <v>167942.6502382269</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7506.640144976756</v>
+        <v>7506.640144976933</v>
       </c>
       <c r="E3" t="n">
-        <v>116101.0852352527</v>
+        <v>116101.0852352526</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48202.39618561633</v>
+        <v>48202.39618561641</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72783.92923669705</v>
+        <v>72783.92923669721</v>
       </c>
       <c r="M3" t="n">
-        <v>17577.58665631782</v>
+        <v>17577.58665631773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42541.7362209507</v>
+        <v>42541.73622095061</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214112.3419115255</v>
+        <v>214112.3419115256</v>
       </c>
       <c r="C4" t="n">
-        <v>214112.3419115255</v>
+        <v>214112.3419115256</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
@@ -26430,13 +26430,13 @@
         <v>160591.1709332012</v>
       </c>
       <c r="G4" t="n">
-        <v>201285.5669603255</v>
+        <v>201285.5669603256</v>
       </c>
       <c r="H4" t="n">
-        <v>201285.5669603255</v>
+        <v>201285.5669603256</v>
       </c>
       <c r="I4" t="n">
-        <v>201285.5669603255</v>
+        <v>201285.5669603256</v>
       </c>
       <c r="J4" t="n">
         <v>182981.0487160847</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64096.75053423431</v>
+        <v>64096.75053423428</v>
       </c>
       <c r="C5" t="n">
-        <v>64096.75053423431</v>
+        <v>64096.75053423428</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46637.87924189359</v>
+        <v>46637.87924189356</v>
       </c>
       <c r="F5" t="n">
-        <v>46637.87924189359</v>
+        <v>46637.87924189356</v>
       </c>
       <c r="G5" t="n">
-        <v>51703.28829805431</v>
+        <v>51703.2882980543</v>
       </c>
       <c r="H5" t="n">
-        <v>51703.28829805432</v>
+        <v>51703.2882980543</v>
       </c>
       <c r="I5" t="n">
-        <v>51703.28829805431</v>
+        <v>51703.2882980543</v>
       </c>
       <c r="J5" t="n">
-        <v>55005.24122284443</v>
+        <v>55005.24122284445</v>
       </c>
       <c r="K5" t="n">
-        <v>55005.24122284443</v>
+        <v>55005.24122284446</v>
       </c>
       <c r="L5" t="n">
-        <v>56119.13824775648</v>
+        <v>56119.13824775645</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167947.5057113585</v>
+        <v>167947.5057113589</v>
       </c>
       <c r="C6" t="n">
         <v>335890.1559495855</v>
       </c>
       <c r="D6" t="n">
-        <v>332843.4665186335</v>
+        <v>332843.4665186334</v>
       </c>
       <c r="E6" t="n">
-        <v>233380.646388477</v>
+        <v>233201.3074303637</v>
       </c>
       <c r="F6" t="n">
-        <v>349481.73162373</v>
+        <v>349302.3926656164</v>
       </c>
       <c r="G6" t="n">
         <v>312907.9969513494</v>
       </c>
       <c r="H6" t="n">
-        <v>361110.3931369655</v>
+        <v>361110.393136966</v>
       </c>
       <c r="I6" t="n">
-        <v>361110.3931369653</v>
+        <v>361110.3931369658</v>
       </c>
       <c r="J6" t="n">
-        <v>143065.6536132843</v>
+        <v>142992.5965567612</v>
       </c>
       <c r="K6" t="n">
-        <v>352734.7003691543</v>
+        <v>352661.6433126316</v>
       </c>
       <c r="L6" t="n">
-        <v>285788.0018792586</v>
+        <v>285788.0018792585</v>
       </c>
       <c r="M6" t="n">
-        <v>344735.9943941695</v>
+        <v>344735.9943941697</v>
       </c>
       <c r="N6" t="n">
         <v>362313.5810504874</v>
       </c>
       <c r="O6" t="n">
-        <v>319771.844829537</v>
+        <v>319771.8448295371</v>
       </c>
       <c r="P6" t="n">
-        <v>362313.5810504876</v>
+        <v>362313.5810504875</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F2" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="H2" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="I2" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130644</v>
+        <v>501.1373443130638</v>
       </c>
       <c r="C4" t="n">
-        <v>501.1373443130644</v>
+        <v>501.1373443130638</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>610.2289252924999</v>
+        <v>610.2289252924994</v>
       </c>
       <c r="F4" t="n">
-        <v>610.2289252924999</v>
+        <v>610.2289252924994</v>
       </c>
       <c r="G4" t="n">
-        <v>610.2289252924998</v>
+        <v>610.2289252924994</v>
       </c>
       <c r="H4" t="n">
-        <v>610.2289252924999</v>
+        <v>610.2289252924994</v>
       </c>
       <c r="I4" t="n">
-        <v>610.2289252924998</v>
+        <v>610.2289252924994</v>
       </c>
       <c r="J4" t="n">
-        <v>747.850010505507</v>
+        <v>747.8500105055075</v>
       </c>
       <c r="K4" t="n">
-        <v>747.850010505507</v>
+        <v>747.8500105055075</v>
       </c>
       <c r="L4" t="n">
-        <v>723.6841535535813</v>
+        <v>723.6841535535808</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260717</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>60.25299523202041</v>
+        <v>60.25299523202051</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.17717027618835</v>
+        <v>53.17717027618824</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.9799115458713</v>
+        <v>90.97991154587152</v>
       </c>
       <c r="M2" t="n">
-        <v>21.97198332039727</v>
+        <v>21.97198332039716</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618838</v>
+        <v>53.17717027618826</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130644</v>
+        <v>501.1373443130638</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.16585695192595</v>
+        <v>24.16585695192651</v>
       </c>
       <c r="E4" t="n">
-        <v>84.92572402750955</v>
+        <v>84.92572402750909</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260715</v>
+        <v>638.758429526072</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.25299523202041</v>
+        <v>60.25299523202051</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618835</v>
+        <v>53.17717027618824</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>501.1373443130644</v>
+        <v>501.1373443130638</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24.16585695192595</v>
+        <v>24.16585695192651</v>
       </c>
       <c r="M4" t="n">
-        <v>84.92572402750955</v>
+        <v>84.92572402750909</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>3.249452519941201</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>60.87081846262049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.359710503976437</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>210.5756538670808</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
@@ -27552,7 +27552,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,7 +27588,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>64.82402753911501</v>
+        <v>25.55531625962749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>81.9705743500877</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>154.6838323357333</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>29.25721791099247</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>63.1729885734739</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27789,10 +27789,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27822,7 +27822,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>136.9151191392583</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27831,10 +27831,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146329</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>264.0806145921396</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.72929359259246</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27941,13 +27941,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>92.99496679973842</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>24.68645909039981</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>59.02445684309302</v>
+        <v>271.7216854425707</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,37 +28087,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J11" t="n">
-        <v>109.4112227086704</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,10 +28126,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>113.4301655082087</v>
+        <v>109.4112227086685</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>57.58432885831184</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28229,10 +28229,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>11.85262580694101</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="14">
@@ -28348,7 +28348,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28357,22 +28357,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>109.4112227086684</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>85.71296083956668</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28409,7 +28409,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>57.58432885831189</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,10 +28457,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.85262580694064</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="D17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="E17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="F17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="G17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="H17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="I17" t="n">
         <v>171.0890268032919</v>
@@ -28594,43 +28594,43 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>78.63713588373264</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>78.6371358837344</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.6831607402291</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="S17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="V17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>125.2827913151514</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28697,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>66.09636509914574</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T19" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U19" t="n">
-        <v>173.6831607402291</v>
+        <v>156.1147383092366</v>
       </c>
       <c r="V19" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W19" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X19" t="n">
-        <v>156.1147383092373</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="D20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="E20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="F20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="G20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="H20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="I20" t="n">
         <v>171.0890268032919</v>
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>173.6831607402291</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.63713588373477</v>
+        <v>162.5883929848566</v>
       </c>
       <c r="R20" t="n">
-        <v>173.6831607402291</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="V20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>57.58432885831189</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>57.58432885831</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -29004,28 +29004,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>130.458141140773</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T22" t="n">
-        <v>156.1147383092373</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U22" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="V22" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W22" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X22" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="D23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="E23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="F23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="G23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="H23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="I23" t="n">
         <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>162.5883929848568</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29074,37 +29074,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="P23" t="n">
-        <v>173.6831607402291</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>162.5883929848584</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="V23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>57.58432885831178</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>66.09636509914598</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29241,28 +29241,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>130.458141140773</v>
       </c>
       <c r="S25" t="n">
-        <v>156.1147383092373</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T25" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U25" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="V25" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W25" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X25" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y25" t="n">
-        <v>173.6831607402291</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="26">
@@ -29302,7 +29302,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L26" t="n">
-        <v>63.48602626315738</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
         <v>113.4301655082087</v>
@@ -29314,7 +29314,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626315915</v>
       </c>
       <c r="Q26" t="n">
         <v>113.4301655082087</v>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29536,13 +29536,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
-        <v>113.4301655082087</v>
+        <v>87.18428813226242</v>
       </c>
       <c r="L29" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="M29" t="n">
-        <v>63.48602626315733</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N29" t="n">
         <v>113.4301655082087</v>
@@ -29557,7 +29557,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>113.4301655082087</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550326</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="C32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="D32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="E32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="F32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="G32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="H32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="I32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="J32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="K32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>10.29782984944791</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>10.29782984945086</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="O32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="P32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.1570818220596</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="S32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="T32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="U32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="V32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="W32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="X32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
     </row>
     <row r="33">
@@ -29843,10 +29843,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550316</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="C34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="D34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="E34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="F34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="G34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="H34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="I34" t="n">
         <v>142.7610139533483</v>
@@ -29931,49 +29931,49 @@
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="L34" t="n">
-        <v>59.4821530799602</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>21.33018514711036</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="P34" t="n">
-        <v>144.1570818220596</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.1570818220596</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="S34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="T34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="U34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="V34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="W34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="X34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220598</v>
       </c>
     </row>
     <row r="35">
@@ -30010,28 +30010,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>40.58157162934918</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30147,19 +30147,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>159.0632869323914</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.56176619902632</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>116.9787331327011</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>40.5815716293491</v>
-      </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30384,22 +30384,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>166.1290651424569</v>
+        <v>152.0796990554077</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>159.0632869323914</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>22.19371500991763</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30493,19 +30493,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>40.58157162934924</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="Q41" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R41" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30621,13 +30621,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>13.99522435731953</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R43" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30718,31 +30718,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>40.58157162934913</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>116.9787331327004</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I45" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>46.68561682995301</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>286.4658580163292</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>307.7845241493118</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>264.1774658398261</v>
+        <v>501.1373443130638</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>265.4487818223449</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34951,7 +34951,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>134.7744820247506</v>
+        <v>207.5002843205116</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35024,7 +35024,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>264.1774658398261</v>
+        <v>32.36882689013829</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35261,13 +35261,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>128.0558564371606</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.1370250044336</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>464.8295322606797</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
@@ -35422,10 +35422,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>421.5156043696572</v>
+        <v>417.4966615701169</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>179.7061035330235</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35501,7 +35501,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>283.1962567561084</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823976</v>
       </c>
       <c r="K13" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L13" t="n">
         <v>215.0534780337234</v>
@@ -35583,10 +35583,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P13" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265298</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536091</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
@@ -35653,22 +35653,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>506.6225017521916</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>393.7983997010151</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910355</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>179.7061035330235</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35735,7 +35735,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>403.4646358863826</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35823,7 +35823,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,22 +35890,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>570.8944397837524</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>460.7900234470819</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>309.0986474555053</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>269.069275575115</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>83.95125710112396</v>
+        <v>83.95125710112407</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>317.4144799066867</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
         <v>489.93268031336</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>46.39997291918218</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>570.8944397837524</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36136,13 +36136,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>404.1446723120001</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>174.0232507186206</v>
+        <v>257.9745078197425</v>
       </c>
       <c r="R20" t="n">
-        <v>83.95125710112396</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>179.7061035330235</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>256.5517056308204</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>235.3141952806201</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
@@ -36370,13 +36370,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>481.7685996016777</v>
       </c>
       <c r="P23" t="n">
-        <v>404.1446723120001</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>257.9745078197443</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>256.5517056308204</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>403.4646358863839</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36595,10 +36595,10 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
-        <v>414.8853930156283</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
         <v>510.6414445517319</v>
@@ -36610,13 +36610,13 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8916770799797</v>
+        <v>293.9475378349301</v>
       </c>
       <c r="Q26" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766762</v>
+        <v>329.7503205007299</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
       </c>
       <c r="M29" t="n">
-        <v>460.6973053066805</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N29" t="n">
         <v>495.583053071558</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>216.8828841178229</v>
+        <v>216.882884117823</v>
       </c>
       <c r="K32" t="n">
-        <v>386.7231141905271</v>
+        <v>386.7231141905272</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>361.6971966019188</v>
       </c>
       <c r="M32" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>392.4507174128001</v>
+        <v>526.309969385409</v>
       </c>
       <c r="O32" t="n">
-        <v>452.2425206835081</v>
+        <v>452.2425206835082</v>
       </c>
       <c r="P32" t="n">
-        <v>374.6185933938306</v>
+        <v>374.6185933938307</v>
       </c>
       <c r="Q32" t="n">
-        <v>239.5431966569455</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>54.42517818295445</v>
+        <v>54.42517818295457</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>178.100705806548</v>
       </c>
       <c r="L34" t="n">
-        <v>161.1054656054748</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>140.9487121669087</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>243.6153106055847</v>
       </c>
       <c r="P34" t="n">
-        <v>207.7616108403806</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.0051138892118</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011683</v>
       </c>
       <c r="L35" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37318,16 +37318,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039053</v>
       </c>
       <c r="P35" t="n">
-        <v>271.0430832011201</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,19 +37443,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194202</v>
+        <v>1.123850630927025</v>
       </c>
       <c r="E37" t="n">
-        <v>15.64014104616257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.17321671797626</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.284368163872483</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238766</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
@@ -37552,7 +37552,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
@@ -37561,10 +37561,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.967686464235</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
@@ -37631,7 +37631,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37680,22 +37680,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>14.58789090194202</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>15.64014104616257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>15.17321671797626</v>
+        <v>1.123850630927025</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.284368163872483</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910866</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>121.6519437934426</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
@@ -37789,19 +37789,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>422.7344591926985</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044718</v>
       </c>
       <c r="Q41" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37917,13 +37917,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37953,13 +37953,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>77.59975337564053</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R43" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>391.9809383818201</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M44" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044714</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>148.3089293554677</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
@@ -38187,7 +38187,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
